--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H2">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I2">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J2">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.042204683887</v>
+        <v>13.251702</v>
       </c>
       <c r="N2">
-        <v>13.042204683887</v>
+        <v>26.503404</v>
       </c>
       <c r="O2">
-        <v>0.5159475328611353</v>
+        <v>0.5130816202012194</v>
       </c>
       <c r="P2">
-        <v>0.5159475328611353</v>
+        <v>0.4221151387296737</v>
       </c>
       <c r="Q2">
-        <v>19.71409457829542</v>
+        <v>20.195978147358</v>
       </c>
       <c r="R2">
-        <v>19.71409457829542</v>
+        <v>80.78391258943201</v>
       </c>
       <c r="S2">
-        <v>0.04847080556063497</v>
+        <v>0.04633231778376249</v>
       </c>
       <c r="T2">
-        <v>0.04847080556063497</v>
+        <v>0.02898525008789511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H3">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I3">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J3">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.044900966779</v>
+        <v>2.148603</v>
       </c>
       <c r="N3">
-        <v>2.044900966779</v>
+        <v>6.445809000000001</v>
       </c>
       <c r="O3">
-        <v>0.08089595542527038</v>
+        <v>0.08318997125117972</v>
       </c>
       <c r="P3">
-        <v>0.08089595542527038</v>
+        <v>0.1026612868392294</v>
       </c>
       <c r="Q3">
-        <v>3.0909935888473</v>
+        <v>3.274533281487</v>
       </c>
       <c r="R3">
-        <v>3.0909935888473</v>
+        <v>19.647199688922</v>
       </c>
       <c r="S3">
-        <v>0.007599788498485595</v>
+        <v>0.007512224240112361</v>
       </c>
       <c r="T3">
-        <v>0.007599788498485595</v>
+        <v>0.00704941093166014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H4">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I4">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J4">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.7586167053518</v>
+        <v>0.04544166666666666</v>
       </c>
       <c r="N4">
-        <v>8.7586167053518</v>
+        <v>0.136325</v>
       </c>
       <c r="O4">
-        <v>0.3464894770426024</v>
+        <v>0.001759418070069571</v>
       </c>
       <c r="P4">
-        <v>0.3464894770426024</v>
+        <v>0.002171224733521882</v>
       </c>
       <c r="Q4">
-        <v>13.23918787424542</v>
+        <v>0.06925441780833333</v>
       </c>
       <c r="R4">
-        <v>13.23918787424542</v>
+        <v>0.41552650685</v>
       </c>
       <c r="S4">
-        <v>0.03255103087208339</v>
+        <v>0.0001588790436597357</v>
       </c>
       <c r="T4">
-        <v>0.03255103087208339</v>
+        <v>0.00014909081936163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H5">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I5">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J5">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.43243841269983</v>
+        <v>0.06106266666666666</v>
       </c>
       <c r="N5">
-        <v>1.43243841269983</v>
+        <v>0.183188</v>
       </c>
       <c r="O5">
-        <v>0.05666703467099192</v>
+        <v>0.002364234567540104</v>
       </c>
       <c r="P5">
-        <v>0.05666703467099192</v>
+        <v>0.002917603641917523</v>
       </c>
       <c r="Q5">
-        <v>2.165218767072103</v>
+        <v>0.09306127481733333</v>
       </c>
       <c r="R5">
-        <v>2.165218767072103</v>
+        <v>0.558367648904</v>
       </c>
       <c r="S5">
-        <v>0.005323597157261085</v>
+        <v>0.0002134952081418644</v>
       </c>
       <c r="T5">
-        <v>0.005323597157261085</v>
+        <v>0.0002003421897466955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.84369658997397</v>
+        <v>1.524029</v>
       </c>
       <c r="H6">
-        <v>7.84369658997397</v>
+        <v>3.048058</v>
       </c>
       <c r="I6">
-        <v>0.4874944316120973</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J6">
-        <v>0.4874944316120973</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.042204683887</v>
+        <v>8.876699666666667</v>
       </c>
       <c r="N6">
-        <v>13.042204683887</v>
+        <v>26.630099</v>
       </c>
       <c r="O6">
-        <v>0.5159475328611353</v>
+        <v>0.3436895462192674</v>
       </c>
       <c r="P6">
-        <v>0.5159475328611353</v>
+        <v>0.424132988116166</v>
       </c>
       <c r="Q6">
-        <v>102.299096404747</v>
+        <v>13.52834771629033</v>
       </c>
       <c r="R6">
-        <v>102.299096404747</v>
+        <v>81.170086297742</v>
       </c>
       <c r="S6">
-        <v>0.251521549273803</v>
+        <v>0.03103586768152639</v>
       </c>
       <c r="T6">
-        <v>0.251521549273803</v>
+        <v>0.02912380912958975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.84369658997397</v>
+        <v>1.524029</v>
       </c>
       <c r="H7">
-        <v>7.84369658997397</v>
+        <v>3.048058</v>
       </c>
       <c r="I7">
-        <v>0.4874944316120973</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J7">
-        <v>0.4874944316120973</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.044900966779</v>
+        <v>1.4441595</v>
       </c>
       <c r="N7">
-        <v>2.044900966779</v>
+        <v>2.888319</v>
       </c>
       <c r="O7">
-        <v>0.08089595542527038</v>
+        <v>0.05591520969072373</v>
       </c>
       <c r="P7">
-        <v>0.08089595542527038</v>
+        <v>0.04600175793949156</v>
       </c>
       <c r="Q7">
-        <v>16.03958273995892</v>
+        <v>2.2009409586255</v>
       </c>
       <c r="R7">
-        <v>16.03958273995892</v>
+        <v>8.803763834502</v>
       </c>
       <c r="S7">
-        <v>0.03943632780975975</v>
+        <v>0.005049257588530105</v>
       </c>
       <c r="T7">
-        <v>0.03943632780975975</v>
+        <v>0.003158788529526966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H8">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J8">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.7586167053518</v>
+        <v>13.251702</v>
       </c>
       <c r="N8">
-        <v>8.7586167053518</v>
+        <v>26.503404</v>
       </c>
       <c r="O8">
-        <v>0.3464894770426024</v>
+        <v>0.5130816202012194</v>
       </c>
       <c r="P8">
-        <v>0.3464894770426024</v>
+        <v>0.4221151387296737</v>
       </c>
       <c r="Q8">
-        <v>68.69993198465696</v>
+        <v>112.67756564325</v>
       </c>
       <c r="R8">
-        <v>68.69993198465696</v>
+        <v>676.0653938595001</v>
       </c>
       <c r="S8">
-        <v>0.1689116906704563</v>
+        <v>0.2584976444513914</v>
       </c>
       <c r="T8">
-        <v>0.1689116906704563</v>
+        <v>0.2425721147771248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H9">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J9">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43243841269983</v>
+        <v>2.148603</v>
       </c>
       <c r="N9">
-        <v>1.43243841269983</v>
+        <v>6.445809000000001</v>
       </c>
       <c r="O9">
-        <v>0.05666703467099192</v>
+        <v>0.08318997125117972</v>
       </c>
       <c r="P9">
-        <v>0.05666703467099192</v>
+        <v>0.1026612868392294</v>
       </c>
       <c r="Q9">
-        <v>11.23561229304138</v>
+        <v>18.269302733625</v>
       </c>
       <c r="R9">
-        <v>11.23561229304138</v>
+        <v>164.423724602625</v>
       </c>
       <c r="S9">
-        <v>0.02762486385807822</v>
+        <v>0.04191226261812958</v>
       </c>
       <c r="T9">
-        <v>0.02762486385807822</v>
+        <v>0.05899519626156038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.384830203357508</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H10">
-        <v>0.384830203357508</v>
+        <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.02391762341913314</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J10">
-        <v>0.02391762341913314</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>13.042204683887</v>
+        <v>0.04544166666666666</v>
       </c>
       <c r="N10">
-        <v>13.042204683887</v>
+        <v>0.136325</v>
       </c>
       <c r="O10">
-        <v>0.5159475328611353</v>
+        <v>0.001759418070069571</v>
       </c>
       <c r="P10">
-        <v>0.5159475328611353</v>
+        <v>0.002171224733521882</v>
       </c>
       <c r="Q10">
-        <v>5.019034280730478</v>
+        <v>0.3863848114583334</v>
       </c>
       <c r="R10">
-        <v>5.019034280730478</v>
+        <v>3.477463303125</v>
       </c>
       <c r="S10">
-        <v>0.01234023879500346</v>
+        <v>0.0008864192534120255</v>
       </c>
       <c r="T10">
-        <v>0.01234023879500346</v>
+        <v>0.001247713069120915</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.384830203357508</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H11">
-        <v>0.384830203357508</v>
+        <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.02391762341913314</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J11">
-        <v>0.02391762341913314</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.044900966779</v>
+        <v>0.06106266666666666</v>
       </c>
       <c r="N11">
-        <v>2.044900966779</v>
+        <v>0.183188</v>
       </c>
       <c r="O11">
-        <v>0.08089595542527038</v>
+        <v>0.002364234567540104</v>
       </c>
       <c r="P11">
-        <v>0.08089595542527038</v>
+        <v>0.002917603641917523</v>
       </c>
       <c r="Q11">
-        <v>0.7869396548915274</v>
+        <v>0.5192082218333334</v>
       </c>
       <c r="R11">
-        <v>0.7869396548915274</v>
+        <v>4.6728739965</v>
       </c>
       <c r="S11">
-        <v>0.001934838997992598</v>
+        <v>0.00119113420278043</v>
       </c>
       <c r="T11">
-        <v>0.001934838997992598</v>
+        <v>0.001676626163257819</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.384830203357508</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H12">
-        <v>0.384830203357508</v>
+        <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.02391762341913314</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J12">
-        <v>0.02391762341913314</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.7586167053518</v>
+        <v>8.876699666666667</v>
       </c>
       <c r="N12">
-        <v>8.7586167053518</v>
+        <v>26.630099</v>
       </c>
       <c r="O12">
-        <v>0.3464894770426024</v>
+        <v>0.3436895462192674</v>
       </c>
       <c r="P12">
-        <v>0.3464894770426024</v>
+        <v>0.424132988116166</v>
       </c>
       <c r="Q12">
-        <v>3.370580247851</v>
+        <v>75.47746767820834</v>
       </c>
       <c r="R12">
-        <v>3.370580247851</v>
+        <v>679.297209103875</v>
       </c>
       <c r="S12">
-        <v>0.008287204830597342</v>
+        <v>0.1731555655519408</v>
       </c>
       <c r="T12">
-        <v>0.008287204830597342</v>
+        <v>0.2437316893767381</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.384830203357508</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H13">
-        <v>0.384830203357508</v>
+        <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.02391762341913314</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J13">
-        <v>0.02391762341913314</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.43243841269983</v>
+        <v>1.4441595</v>
       </c>
       <c r="N13">
-        <v>1.43243841269983</v>
+        <v>2.888319</v>
       </c>
       <c r="O13">
-        <v>0.05666703467099192</v>
+        <v>0.05591520969072373</v>
       </c>
       <c r="P13">
-        <v>0.05666703467099192</v>
+        <v>0.04600175793949156</v>
       </c>
       <c r="Q13">
-        <v>0.5512455656563815</v>
+        <v>12.2795077085625</v>
       </c>
       <c r="R13">
-        <v>0.5512455656563815</v>
+        <v>73.677046251375</v>
       </c>
       <c r="S13">
-        <v>0.001355340795539746</v>
+        <v>0.02817085903094555</v>
       </c>
       <c r="T13">
-        <v>0.001355340795539746</v>
+        <v>0.02643530800726391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.43421639377871</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H14">
-        <v>0.43421639377871</v>
+        <v>1.167181</v>
       </c>
       <c r="I14">
-        <v>0.02698702985941344</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J14">
-        <v>0.02698702985941344</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.042204683887</v>
+        <v>13.251702</v>
       </c>
       <c r="N14">
-        <v>13.042204683887</v>
+        <v>26.503404</v>
       </c>
       <c r="O14">
-        <v>0.5159475328611353</v>
+        <v>0.5130816202012194</v>
       </c>
       <c r="P14">
-        <v>0.5159475328611353</v>
+        <v>0.4221151387296737</v>
       </c>
       <c r="Q14">
-        <v>5.663139084761214</v>
+        <v>5.155711597354</v>
       </c>
       <c r="R14">
-        <v>5.663139084761214</v>
+        <v>30.934269584124</v>
       </c>
       <c r="S14">
-        <v>0.01392389147521415</v>
+        <v>0.01182790288180642</v>
       </c>
       <c r="T14">
-        <v>0.01392389147521415</v>
+        <v>0.01109920913015418</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.43421639377871</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H15">
-        <v>0.43421639377871</v>
+        <v>1.167181</v>
       </c>
       <c r="I15">
-        <v>0.02698702985941344</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J15">
-        <v>0.02698702985941344</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.044900966779</v>
+        <v>2.148603</v>
       </c>
       <c r="N15">
-        <v>2.044900966779</v>
+        <v>6.445809000000001</v>
       </c>
       <c r="O15">
-        <v>0.08089595542527038</v>
+        <v>0.08318997125117972</v>
       </c>
       <c r="P15">
-        <v>0.08089595542527038</v>
+        <v>0.1026612868392294</v>
       </c>
       <c r="Q15">
-        <v>0.8879295234293751</v>
+        <v>0.8359361993810001</v>
       </c>
       <c r="R15">
-        <v>0.8879295234293751</v>
+        <v>7.523425794429</v>
       </c>
       <c r="S15">
-        <v>0.00218314156456755</v>
+        <v>0.001917751215319959</v>
       </c>
       <c r="T15">
-        <v>0.00218314156456755</v>
+        <v>0.002699403522054375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.43421639377871</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H16">
-        <v>0.43421639377871</v>
+        <v>1.167181</v>
       </c>
       <c r="I16">
-        <v>0.02698702985941344</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J16">
-        <v>0.02698702985941344</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>8.7586167053518</v>
+        <v>0.04544166666666666</v>
       </c>
       <c r="N16">
-        <v>8.7586167053518</v>
+        <v>0.136325</v>
       </c>
       <c r="O16">
-        <v>0.3464894770426024</v>
+        <v>0.001759418070069571</v>
       </c>
       <c r="P16">
-        <v>0.3464894770426024</v>
+        <v>0.002171224733521882</v>
       </c>
       <c r="Q16">
-        <v>3.803134960287825</v>
+        <v>0.01767954998055556</v>
       </c>
       <c r="R16">
-        <v>3.803134960287825</v>
+        <v>0.159115949825</v>
       </c>
       <c r="S16">
-        <v>0.009350721862921256</v>
+        <v>4.055928967620564E-05</v>
       </c>
       <c r="T16">
-        <v>0.009350721862921256</v>
+        <v>5.70907678375302E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.43421639377871</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H17">
-        <v>0.43421639377871</v>
+        <v>1.167181</v>
       </c>
       <c r="I17">
-        <v>0.02698702985941344</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J17">
-        <v>0.02698702985941344</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.43243841269983</v>
+        <v>0.06106266666666666</v>
       </c>
       <c r="N17">
-        <v>1.43243841269983</v>
+        <v>0.183188</v>
       </c>
       <c r="O17">
-        <v>0.05666703467099192</v>
+        <v>0.002364234567540104</v>
       </c>
       <c r="P17">
-        <v>0.05666703467099192</v>
+        <v>0.002917603641917523</v>
       </c>
       <c r="Q17">
-        <v>0.6219882418726197</v>
+        <v>0.02375706144755555</v>
       </c>
       <c r="R17">
-        <v>0.6219882418726197</v>
+        <v>0.213813553028</v>
       </c>
       <c r="S17">
-        <v>0.001529274956710475</v>
+        <v>5.450192669873287E-05</v>
       </c>
       <c r="T17">
-        <v>0.001529274956710475</v>
+        <v>7.67162558490481E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.27669018214031</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H18">
-        <v>1.27669018214031</v>
+        <v>1.167181</v>
       </c>
       <c r="I18">
-        <v>0.07934770902316364</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J18">
-        <v>0.07934770902316364</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.042204683887</v>
+        <v>8.876699666666667</v>
       </c>
       <c r="N18">
-        <v>13.042204683887</v>
+        <v>26.630099</v>
       </c>
       <c r="O18">
-        <v>0.5159475328611353</v>
+        <v>0.3436895462192674</v>
       </c>
       <c r="P18">
-        <v>0.5159475328611353</v>
+        <v>0.424132988116166</v>
       </c>
       <c r="Q18">
-        <v>16.6508546733829</v>
+        <v>3.453571731213223</v>
       </c>
       <c r="R18">
-        <v>16.6508546733829</v>
+        <v>31.082145580919</v>
       </c>
       <c r="S18">
-        <v>0.04093925470868452</v>
+        <v>0.007922962768729391</v>
       </c>
       <c r="T18">
-        <v>0.04093925470868452</v>
+        <v>0.0111522670053141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.27669018214031</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H19">
-        <v>1.27669018214031</v>
+        <v>1.167181</v>
       </c>
       <c r="I19">
-        <v>0.07934770902316364</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J19">
-        <v>0.07934770902316364</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.044900966779</v>
+        <v>1.4441595</v>
       </c>
       <c r="N19">
-        <v>2.044900966779</v>
+        <v>2.888319</v>
       </c>
       <c r="O19">
-        <v>0.08089595542527038</v>
+        <v>0.05591520969072373</v>
       </c>
       <c r="P19">
-        <v>0.08089595542527038</v>
+        <v>0.04600175793949156</v>
       </c>
       <c r="Q19">
-        <v>2.610704987735978</v>
+        <v>0.5618651764565</v>
       </c>
       <c r="R19">
-        <v>2.610704987735978</v>
+        <v>3.371191058739</v>
       </c>
       <c r="S19">
-        <v>0.00641890873223517</v>
+        <v>0.001288995052245978</v>
       </c>
       <c r="T19">
-        <v>0.00641890873223517</v>
+        <v>0.001209582611184503</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.27669018214031</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H20">
-        <v>1.27669018214031</v>
+        <v>1.344617</v>
       </c>
       <c r="I20">
-        <v>0.07934770902316364</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J20">
-        <v>0.07934770902316364</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.7586167053518</v>
+        <v>13.251702</v>
       </c>
       <c r="N20">
-        <v>8.7586167053518</v>
+        <v>26.503404</v>
       </c>
       <c r="O20">
-        <v>0.3464894770426024</v>
+        <v>0.5130816202012194</v>
       </c>
       <c r="P20">
-        <v>0.3464894770426024</v>
+        <v>0.4221151387296737</v>
       </c>
       <c r="Q20">
-        <v>11.18203995685275</v>
+        <v>5.939487929378</v>
       </c>
       <c r="R20">
-        <v>11.18203995685275</v>
+        <v>35.636927576268</v>
       </c>
       <c r="S20">
-        <v>0.02749314620396455</v>
+        <v>0.01362599227474223</v>
       </c>
       <c r="T20">
-        <v>0.02749314620396455</v>
+        <v>0.01278652178450517</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.27669018214031</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H21">
-        <v>1.27669018214031</v>
+        <v>1.344617</v>
       </c>
       <c r="I21">
-        <v>0.07934770902316364</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J21">
-        <v>0.07934770902316364</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.43243841269983</v>
+        <v>2.148603</v>
       </c>
       <c r="N21">
-        <v>1.43243841269983</v>
+        <v>6.445809000000001</v>
       </c>
       <c r="O21">
-        <v>0.05666703467099192</v>
+        <v>0.08318997125117972</v>
       </c>
       <c r="P21">
-        <v>0.05666703467099192</v>
+        <v>0.1026612868392294</v>
       </c>
       <c r="Q21">
-        <v>1.828780058014523</v>
+        <v>0.963016040017</v>
       </c>
       <c r="R21">
-        <v>1.828780058014523</v>
+        <v>8.667144360153001</v>
       </c>
       <c r="S21">
-        <v>0.004496399378279392</v>
+        <v>0.002209289635360649</v>
       </c>
       <c r="T21">
-        <v>0.004496399378279392</v>
+        <v>0.00310976949214748</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.6388229368426</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H22">
-        <v>4.6388229368426</v>
+        <v>1.344617</v>
       </c>
       <c r="I22">
-        <v>0.2883079839977273</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J22">
-        <v>0.2883079839977273</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>13.042204683887</v>
+        <v>0.04544166666666666</v>
       </c>
       <c r="N22">
-        <v>13.042204683887</v>
+        <v>0.136325</v>
       </c>
       <c r="O22">
-        <v>0.5159475328611353</v>
+        <v>0.001759418070069571</v>
       </c>
       <c r="P22">
-        <v>0.5159475328611353</v>
+        <v>0.002171224733521882</v>
       </c>
       <c r="Q22">
-        <v>60.50047823461101</v>
+        <v>0.02036721250277778</v>
       </c>
       <c r="R22">
-        <v>60.50047823461101</v>
+        <v>0.183304912525</v>
       </c>
       <c r="S22">
-        <v>0.1487517930477951</v>
+        <v>4.672515265974223E-05</v>
       </c>
       <c r="T22">
-        <v>0.1487517930477951</v>
+        <v>6.57697623396854E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.6388229368426</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H23">
-        <v>4.6388229368426</v>
+        <v>1.344617</v>
       </c>
       <c r="I23">
-        <v>0.2883079839977273</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J23">
-        <v>0.2883079839977273</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.044900966779</v>
+        <v>0.06106266666666666</v>
       </c>
       <c r="N23">
-        <v>2.044900966779</v>
+        <v>0.183188</v>
       </c>
       <c r="O23">
-        <v>0.08089595542527038</v>
+        <v>0.002364234567540104</v>
       </c>
       <c r="P23">
-        <v>0.08089595542527038</v>
+        <v>0.002917603641917523</v>
       </c>
       <c r="Q23">
-        <v>9.485933508266033</v>
+        <v>0.02736863322177778</v>
       </c>
       <c r="R23">
-        <v>9.485933508266033</v>
+        <v>0.246317698996</v>
       </c>
       <c r="S23">
-        <v>0.02332294982222971</v>
+        <v>6.278736303270024E-05</v>
       </c>
       <c r="T23">
-        <v>0.02332294982222971</v>
+        <v>8.837873628081633E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.6388229368426</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H24">
-        <v>4.6388229368426</v>
+        <v>1.344617</v>
       </c>
       <c r="I24">
-        <v>0.2883079839977273</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J24">
-        <v>0.2883079839977273</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.7586167053518</v>
+        <v>8.876699666666667</v>
       </c>
       <c r="N24">
-        <v>8.7586167053518</v>
+        <v>26.630099</v>
       </c>
       <c r="O24">
-        <v>0.3464894770426024</v>
+        <v>0.3436895462192674</v>
       </c>
       <c r="P24">
-        <v>0.3464894770426024</v>
+        <v>0.424132988116166</v>
       </c>
       <c r="Q24">
-        <v>40.62967206779869</v>
+        <v>3.978587091898111</v>
       </c>
       <c r="R24">
-        <v>40.62967206779869</v>
+        <v>35.807283827083</v>
       </c>
       <c r="S24">
-        <v>0.0998956826025795</v>
+        <v>0.009127419337018515</v>
       </c>
       <c r="T24">
-        <v>0.0998956826025795</v>
+        <v>0.01284764556986828</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.6388229368426</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H25">
-        <v>4.6388229368426</v>
+        <v>1.344617</v>
       </c>
       <c r="I25">
-        <v>0.2883079839977273</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J25">
-        <v>0.2883079839977273</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.43243841269983</v>
+        <v>1.4441595</v>
       </c>
       <c r="N25">
-        <v>1.43243841269983</v>
+        <v>2.888319</v>
       </c>
       <c r="O25">
-        <v>0.05666703467099192</v>
+        <v>0.05591520969072373</v>
       </c>
       <c r="P25">
-        <v>0.05666703467099192</v>
+        <v>0.04600175793949156</v>
       </c>
       <c r="Q25">
-        <v>6.644828164446378</v>
+        <v>0.6472804714705001</v>
       </c>
       <c r="R25">
-        <v>6.644828164446378</v>
+        <v>3.883682828823</v>
       </c>
       <c r="S25">
-        <v>0.016337558525123</v>
+        <v>0.001484949343902814</v>
       </c>
       <c r="T25">
-        <v>0.016337558525123</v>
+        <v>0.001393464545690062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.295005</v>
+      </c>
+      <c r="H26">
+        <v>3.885015</v>
+      </c>
+      <c r="I26">
+        <v>0.07673187013628475</v>
+      </c>
+      <c r="J26">
+        <v>0.08752167025935917</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.251702</v>
+      </c>
+      <c r="N26">
+        <v>26.503404</v>
+      </c>
+      <c r="O26">
+        <v>0.5130816202012194</v>
+      </c>
+      <c r="P26">
+        <v>0.4221151387296737</v>
+      </c>
+      <c r="Q26">
+        <v>17.16102034851</v>
+      </c>
+      <c r="R26">
+        <v>102.96612209106</v>
+      </c>
+      <c r="S26">
+        <v>0.03936971225059455</v>
+      </c>
+      <c r="T26">
+        <v>0.03694422198338215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.295005</v>
+      </c>
+      <c r="H27">
+        <v>3.885015</v>
+      </c>
+      <c r="I27">
+        <v>0.07673187013628475</v>
+      </c>
+      <c r="J27">
+        <v>0.08752167025935917</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.148603</v>
+      </c>
+      <c r="N27">
+        <v>6.445809000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.08318997125117972</v>
+      </c>
+      <c r="P27">
+        <v>0.1026612868392294</v>
+      </c>
+      <c r="Q27">
+        <v>2.782451628015</v>
+      </c>
+      <c r="R27">
+        <v>25.042064652135</v>
+      </c>
+      <c r="S27">
+        <v>0.006383322070686784</v>
+      </c>
+      <c r="T27">
+        <v>0.008985087295144523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.295005</v>
+      </c>
+      <c r="H28">
+        <v>3.885015</v>
+      </c>
+      <c r="I28">
+        <v>0.07673187013628475</v>
+      </c>
+      <c r="J28">
+        <v>0.08752167025935917</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04544166666666666</v>
+      </c>
+      <c r="N28">
+        <v>0.136325</v>
+      </c>
+      <c r="O28">
+        <v>0.001759418070069571</v>
+      </c>
+      <c r="P28">
+        <v>0.002171224733521882</v>
+      </c>
+      <c r="Q28">
+        <v>0.05884718554166666</v>
+      </c>
+      <c r="R28">
+        <v>0.529624669875</v>
+      </c>
+      <c r="S28">
+        <v>0.0001350034388680111</v>
+      </c>
+      <c r="T28">
+        <v>0.0001900292151862671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.295005</v>
+      </c>
+      <c r="H29">
+        <v>3.885015</v>
+      </c>
+      <c r="I29">
+        <v>0.07673187013628475</v>
+      </c>
+      <c r="J29">
+        <v>0.08752167025935917</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06106266666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.183188</v>
+      </c>
+      <c r="O29">
+        <v>0.002364234567540104</v>
+      </c>
+      <c r="P29">
+        <v>0.002917603641917523</v>
+      </c>
+      <c r="Q29">
+        <v>0.07907645864666665</v>
+      </c>
+      <c r="R29">
+        <v>0.71168812782</v>
+      </c>
+      <c r="S29">
+        <v>0.0001814121398082026</v>
+      </c>
+      <c r="T29">
+        <v>0.0002553535438954109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.295005</v>
+      </c>
+      <c r="H30">
+        <v>3.885015</v>
+      </c>
+      <c r="I30">
+        <v>0.07673187013628475</v>
+      </c>
+      <c r="J30">
+        <v>0.08752167025935917</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.876699666666667</v>
+      </c>
+      <c r="N30">
+        <v>26.630099</v>
+      </c>
+      <c r="O30">
+        <v>0.3436895462192674</v>
+      </c>
+      <c r="P30">
+        <v>0.424132988116166</v>
+      </c>
+      <c r="Q30">
+        <v>11.49537045183167</v>
+      </c>
+      <c r="R30">
+        <v>103.458334066485</v>
+      </c>
+      <c r="S30">
+        <v>0.02637194162769546</v>
+      </c>
+      <c r="T30">
+        <v>0.03712082753201978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.295005</v>
+      </c>
+      <c r="H31">
+        <v>3.885015</v>
+      </c>
+      <c r="I31">
+        <v>0.07673187013628475</v>
+      </c>
+      <c r="J31">
+        <v>0.08752167025935917</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.4441595</v>
+      </c>
+      <c r="N31">
+        <v>2.888319</v>
+      </c>
+      <c r="O31">
+        <v>0.05591520969072373</v>
+      </c>
+      <c r="P31">
+        <v>0.04600175793949156</v>
+      </c>
+      <c r="Q31">
+        <v>1.8701937732975</v>
+      </c>
+      <c r="R31">
+        <v>11.221162639785</v>
+      </c>
+      <c r="S31">
+        <v>0.004290478608631744</v>
+      </c>
+      <c r="T31">
+        <v>0.004026150689731038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.717841</v>
+      </c>
+      <c r="H32">
+        <v>9.435682</v>
+      </c>
+      <c r="I32">
+        <v>0.2795423669681891</v>
+      </c>
+      <c r="J32">
+        <v>0.2125671712145694</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>13.251702</v>
+      </c>
+      <c r="N32">
+        <v>26.503404</v>
+      </c>
+      <c r="O32">
+        <v>0.5130816202012194</v>
+      </c>
+      <c r="P32">
+        <v>0.4221151387296737</v>
+      </c>
+      <c r="Q32">
+        <v>62.519423015382</v>
+      </c>
+      <c r="R32">
+        <v>250.077692061528</v>
+      </c>
+      <c r="S32">
+        <v>0.1434280505589223</v>
+      </c>
+      <c r="T32">
+        <v>0.08972782096661228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.717841</v>
+      </c>
+      <c r="H33">
+        <v>9.435682</v>
+      </c>
+      <c r="I33">
+        <v>0.2795423669681891</v>
+      </c>
+      <c r="J33">
+        <v>0.2125671712145694</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.148603</v>
+      </c>
+      <c r="N33">
+        <v>6.445809000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.08318997125117972</v>
+      </c>
+      <c r="P33">
+        <v>0.1026612868392294</v>
+      </c>
+      <c r="Q33">
+        <v>10.136767326123</v>
+      </c>
+      <c r="R33">
+        <v>60.820603956738</v>
+      </c>
+      <c r="S33">
+        <v>0.02325512147157038</v>
+      </c>
+      <c r="T33">
+        <v>0.0218224193366625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.717841</v>
+      </c>
+      <c r="H34">
+        <v>9.435682</v>
+      </c>
+      <c r="I34">
+        <v>0.2795423669681891</v>
+      </c>
+      <c r="J34">
+        <v>0.2125671712145694</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.04544166666666666</v>
+      </c>
+      <c r="N34">
+        <v>0.136325</v>
+      </c>
+      <c r="O34">
+        <v>0.001759418070069571</v>
+      </c>
+      <c r="P34">
+        <v>0.002171224733521882</v>
+      </c>
+      <c r="Q34">
+        <v>0.2143865581083333</v>
+      </c>
+      <c r="R34">
+        <v>1.28631934865</v>
+      </c>
+      <c r="S34">
+        <v>0.0004918318917938512</v>
+      </c>
+      <c r="T34">
+        <v>0.0004615310996758537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.717841</v>
+      </c>
+      <c r="H35">
+        <v>9.435682</v>
+      </c>
+      <c r="I35">
+        <v>0.2795423669681891</v>
+      </c>
+      <c r="J35">
+        <v>0.2125671712145694</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06106266666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.183188</v>
+      </c>
+      <c r="O35">
+        <v>0.002364234567540104</v>
+      </c>
+      <c r="P35">
+        <v>0.002917603641917523</v>
+      </c>
+      <c r="Q35">
+        <v>0.2880839523693333</v>
+      </c>
+      <c r="R35">
+        <v>1.728503714216</v>
+      </c>
+      <c r="S35">
+        <v>0.0006609037270781736</v>
+      </c>
+      <c r="T35">
+        <v>0.0006201867528877336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.717841</v>
+      </c>
+      <c r="H36">
+        <v>9.435682</v>
+      </c>
+      <c r="I36">
+        <v>0.2795423669681891</v>
+      </c>
+      <c r="J36">
+        <v>0.2125671712145694</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>8.876699666666667</v>
+      </c>
+      <c r="N36">
+        <v>26.630099</v>
+      </c>
+      <c r="O36">
+        <v>0.3436895462192674</v>
+      </c>
+      <c r="P36">
+        <v>0.424132988116166</v>
+      </c>
+      <c r="Q36">
+        <v>41.87885763208634</v>
+      </c>
+      <c r="R36">
+        <v>251.273145792518</v>
+      </c>
+      <c r="S36">
+        <v>0.09607578925235684</v>
+      </c>
+      <c r="T36">
+        <v>0.090156749502636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.717841</v>
+      </c>
+      <c r="H37">
+        <v>9.435682</v>
+      </c>
+      <c r="I37">
+        <v>0.2795423669681891</v>
+      </c>
+      <c r="J37">
+        <v>0.2125671712145694</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.4441595</v>
+      </c>
+      <c r="N37">
+        <v>2.888319</v>
+      </c>
+      <c r="O37">
+        <v>0.05591520969072373</v>
+      </c>
+      <c r="P37">
+        <v>0.04600175793949156</v>
+      </c>
+      <c r="Q37">
+        <v>6.8133148996395</v>
+      </c>
+      <c r="R37">
+        <v>27.253259598558</v>
+      </c>
+      <c r="S37">
+        <v>0.01563067006646754</v>
+      </c>
+      <c r="T37">
+        <v>0.009778463556095081</v>
       </c>
     </row>
   </sheetData>
